--- a/tests/testthat/fixtures/ex3/tables/dif_dich_TR.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/dif_dich_TR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">DIF.variable</t>
   </si>
@@ -66,271 +66,268 @@
     <t xml:space="preserve">reg70001_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.046 (-0.043)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.031 ( 0.030)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.181 ( 0.176)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.150 ( 0.146)</t>
+    <t xml:space="preserve">-0.089 (-0.084)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.004 ( 0.004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.005 ( 0.005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.002 ( 0.002)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70003_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.136 (-0.128)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.151 ( 0.147)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.099 (-0.096)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.251 (-0.245)</t>
+    <t xml:space="preserve">-0.082 (-0.077)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.158 ( 0.153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.170 ( 0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012 ( 0.012)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70005_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.328 (-0.309)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.097 (-0.095)</t>
+    <t xml:space="preserve">-0.107 (-0.101)</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.075 ( 0.073)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.172 ( 0.168)</t>
+    <t xml:space="preserve">-0.129 (-0.125)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.205 (-0.198)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70006_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.019 ( 0.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.297 ( 0.289)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.551 ( 0.537)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.255 ( 0.248)</t>
+    <t xml:space="preserve"> 0.050 ( 0.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.169 ( 0.163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.290 (-0.281)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.459 (-0.444)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70007_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.008 (-0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.184 (-0.179)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.269 (-0.262)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.086 (-0.084)</t>
+    <t xml:space="preserve">-0.022 (-0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.207 (-0.200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.351 (-0.340)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.144 (-0.139)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70008_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.034 (-0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.006 ( 0.006)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.276 (-0.269)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.282 (-0.275)</t>
+    <t xml:space="preserve">-0.042 (-0.040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.426 ( 0.412)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.425 ( 0.411)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70009_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.113 ( 0.106)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.189 ( 0.184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.041 (-0.040)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.229 (-0.223)</t>
+    <t xml:space="preserve"> 0.123 ( 0.116)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.020 ( 0.019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.101 (-0.098)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.121 (-0.117)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70011_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.138 (-0.130)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.073 ( 0.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.278 (-0.271)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.351 (-0.342)</t>
+    <t xml:space="preserve">-0.168 (-0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.066 ( 0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.658 ( 0.637)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.591 ( 0.572)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70012_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.034 ( 0.032)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.143 ( 0.139)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.134 (-0.131)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.277 (-0.270)</t>
+    <t xml:space="preserve">-0.044 (-0.042)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.022 ( 0.021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.414 ( 0.401)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.392 ( 0.379)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70013_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.179 (-0.169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.261 (-0.254)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.219 (-0.213)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.042 ( 0.041)</t>
+    <t xml:space="preserve">-0.182 (-0.172)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.138 (-0.134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.365 (-0.353)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.227 (-0.220)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70014_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.101 ( 0.095)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.061 ( 0.059)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.068 (-0.066)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.129 (-0.126)</t>
+    <t xml:space="preserve"> 0.125 ( 0.118)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.305 ( 0.295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.669 ( 0.647)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.364 ( 0.352)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70015_c</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.166 (-0.156)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.255 (-0.248)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.050 (-0.049)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.204 ( 0.199)</t>
+    <t xml:space="preserve">-0.173 (-0.163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.083 (-0.080)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.244 ( 0.236)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.327 ( 0.316)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70017_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.179 ( 0.169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.257 (-0.250)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.064 ( 0.062)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.321 ( 0.313)</t>
+    <t xml:space="preserve"> 0.181 ( 0.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.266 (-0.257)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.680 (-0.658)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.413 (-0.400)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70018_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.223 ( 0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.347 ( 0.338)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.571 ( 0.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.224 ( 0.218)</t>
+    <t xml:space="preserve"> 0.201 ( 0.190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.227 ( 0.220)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.186 ( 0.180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.042 (-0.041)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70020_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.407 ( 0.383)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.116 ( 0.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.087 ( 0.085)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.029 (-0.028)</t>
+    <t xml:space="preserve"> 0.323 ( 0.305)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.055 ( 0.053)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.159 (-0.154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.213 (-0.206)</t>
   </si>
   <si>
     <t xml:space="preserve">reg70021_c</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.040 ( 0.038)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.361 ( 0.352)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.094 ( 0.092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.267 (-0.260)</t>
+    <t xml:space="preserve"> 0.094 ( 0.089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.409 ( 0.396)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.698 ( 0.675)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.289 ( 0.280)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (DIF model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.406 (-0.383)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.762 (0.743)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.171 (0.167)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.591 (-0.576)</t>
+    <t xml:space="preserve">-0.413 (-0.390)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727 (0.704)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.305 (0.295)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.422 (-0.408)</t>
   </si>
   <si>
     <t xml:space="preserve">Main effect (Main effect model)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.385 (-0.363)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.734 (0.716)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.166 (0.162)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.568 (-0.555)</t>
+    <t xml:space="preserve">-0.400 (-0.377)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707 (0.686)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.298 (0.289)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.409 (-0.397)</t>
   </si>
 </sst>
 </file>
@@ -696,16 +693,16 @@
         <v>2100</v>
       </c>
       <c r="D2" t="n">
-        <v>15560</v>
+        <v>15637</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>15596</v>
+        <v>15673</v>
       </c>
       <c r="G2" t="n">
-        <v>15698</v>
+        <v>15775</v>
       </c>
     </row>
     <row r="3">
@@ -719,16 +716,16 @@
         <v>2100</v>
       </c>
       <c r="D3" t="n">
-        <v>15546</v>
+        <v>15628</v>
       </c>
       <c r="E3" t="n">
         <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>15612</v>
+        <v>15694</v>
       </c>
       <c r="G3" t="n">
-        <v>15798</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="4">
@@ -742,16 +739,16 @@
         <v>2100</v>
       </c>
       <c r="D4" t="n">
-        <v>15481</v>
+        <v>15574</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>15519</v>
+        <v>15612</v>
       </c>
       <c r="G4" t="n">
-        <v>15627</v>
+        <v>15719</v>
       </c>
     </row>
     <row r="5">
@@ -765,16 +762,16 @@
         <v>2100</v>
       </c>
       <c r="D5" t="n">
-        <v>15452</v>
+        <v>15530</v>
       </c>
       <c r="E5" t="n">
         <v>49</v>
       </c>
       <c r="F5" t="n">
-        <v>15550</v>
+        <v>15628</v>
       </c>
       <c r="G5" t="n">
-        <v>15827</v>
+        <v>15904</v>
       </c>
     </row>
   </sheetData>
@@ -901,217 +898,217 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>83</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>84</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>94</v>
-      </c>
-      <c r="E17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>104</v>
-      </c>
-      <c r="E19" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
